--- a/Post Journal Rev 20250224.xlsx
+++ b/Post Journal Rev 20250224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Toni\erps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51EBAE2-D659-444D-AC99-A6B33347FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579C3EA-0B59-4844-B8D3-F5F7A466F4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="849" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="849" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pembelian Hutang Belum Ditagih" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Retur Penjualan" sheetId="11" r:id="rId5"/>
     <sheet name="Kompensasi Penjualan" sheetId="12" r:id="rId6"/>
     <sheet name="Kompensasi Pembelian" sheetId="13" r:id="rId7"/>
+    <sheet name="Biaya dengan Invoice" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="65">
   <si>
     <t>Kontrak Pembelian</t>
   </si>
@@ -227,6 +228,12 @@
   <si>
     <t>Pendapatan Kompensasi</t>
   </si>
+  <si>
+    <t>Pembayaran Biaya dengan Invoice</t>
+  </si>
+  <si>
+    <t>Biaya</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -632,7 +639,7 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -645,7 +652,7 @@
     <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +670,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +690,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -705,7 +712,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -727,7 +734,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -740,7 +747,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -755,7 +762,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,7 +783,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -801,7 +808,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
@@ -830,7 +837,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,7 +865,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -877,7 +884,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -890,7 +897,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -908,7 +915,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -926,7 +933,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -945,7 +952,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -958,7 +965,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -979,7 +986,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1011,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1040,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1070,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -1076,7 +1083,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1097,7 +1104,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -1122,7 +1129,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1158,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1187,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -1199,7 +1206,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
@@ -1212,7 +1219,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1244,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +1273,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1303,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1316,7 +1323,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1340,7 +1347,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1373,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -1384,7 +1391,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -1402,7 +1409,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -1421,7 +1428,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -1434,7 +1441,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -1452,7 +1459,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -1470,7 +1477,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -1489,7 +1496,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1502,7 +1509,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -1523,7 +1530,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -1547,7 +1554,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -1571,7 +1578,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -1595,7 +1602,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -1619,7 +1626,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -1643,7 +1650,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -1667,7 +1674,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -1691,7 +1698,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -1704,7 +1711,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -1717,7 +1724,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -1730,7 +1737,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -1743,7 +1750,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -1756,7 +1763,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -1769,7 +1776,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -1782,7 +1789,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1795,7 +1802,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1808,7 +1815,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -1821,7 +1828,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -1834,7 +1841,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1847,7 +1854,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1860,7 +1867,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -1873,7 +1880,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -1886,7 +1893,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -1899,7 +1906,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -1912,7 +1919,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -1925,7 +1932,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -1938,7 +1945,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -1951,7 +1958,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -1964,7 +1971,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -1977,7 +1984,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -1990,7 +1997,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -2003,7 +2010,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -2016,7 +2023,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -2029,7 +2036,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -2042,7 +2049,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -2055,7 +2062,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -2068,7 +2075,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -2081,7 +2088,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -2094,7 +2101,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -2107,7 +2114,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -2120,7 +2127,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -2133,7 +2140,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -2146,7 +2153,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -2159,7 +2166,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -2172,7 +2179,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -2185,7 +2192,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -2198,7 +2205,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -2211,7 +2218,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -2224,7 +2231,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -2237,7 +2244,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -2250,7 +2257,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -2263,7 +2270,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -2276,7 +2283,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -2289,7 +2296,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -2302,7 +2309,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -2315,7 +2322,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -2328,7 +2335,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -2341,7 +2348,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -2354,7 +2361,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -2384,7 +2391,7 @@
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -2397,7 +2404,7 @@
     <col min="10" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
@@ -2413,7 +2420,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2428,7 +2435,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2452,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2462,14 +2469,14 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="3"/>
       <c r="C5" s="10"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
       <c r="D6" s="3"/>
@@ -2480,7 +2487,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -2502,7 +2509,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2524,7 +2531,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2549,7 +2556,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2574,7 +2581,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3"/>
@@ -2587,14 +2594,14 @@
         <v>499500000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="B12" s="3"/>
       <c r="C12" s="10"/>
       <c r="D12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="3"/>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -2607,7 +2614,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="3"/>
       <c r="C14" s="10"/>
       <c r="D14" s="3"/>
@@ -2620,7 +2627,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="B15" s="3"/>
       <c r="C15" s="10"/>
       <c r="D15" s="3"/>
@@ -2633,14 +2640,14 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="B16" s="3"/>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
         <v>33</v>
       </c>
@@ -2660,7 +2667,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2684,7 +2691,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2734,14 +2741,14 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="B21" s="3"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="B22" s="3"/>
       <c r="C22" s="10"/>
       <c r="D22" s="3"/>
@@ -2753,7 +2760,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="B23" s="3"/>
       <c r="C23" s="10"/>
       <c r="D23" s="3"/>
@@ -2765,7 +2772,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24" s="3"/>
       <c r="C24" s="10"/>
       <c r="D24" s="3"/>
@@ -2779,7 +2786,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
       <c r="D25" s="3"/>
@@ -2787,7 +2794,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="B26" s="3"/>
       <c r="C26" s="10"/>
       <c r="D26" s="3"/>
@@ -2799,7 +2806,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
       <c r="D27" s="3"/>
@@ -2811,7 +2818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
       <c r="D28" s="3"/>
@@ -2825,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" s="3"/>
       <c r="C29" s="10"/>
       <c r="D29" s="3"/>
@@ -2833,14 +2840,14 @@
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -2858,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2881,7 +2888,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2905,7 +2912,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2937,7 @@
         <v>115500000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2952,7 +2959,7 @@
         <v>1615500000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -2969,7 +2976,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
         <v>22</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -3015,7 +3022,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -3040,7 +3047,7 @@
         <v>450000000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -3059,7 +3066,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="B41" s="3"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3"/>
@@ -3070,7 +3077,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="B42" s="3"/>
       <c r="C42" s="10"/>
       <c r="D42" s="3"/>
@@ -3083,7 +3090,7 @@
       </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="B43" s="3"/>
       <c r="C43" s="10"/>
       <c r="D43" s="3"/>
@@ -3096,7 +3103,7 @@
         <v>1165500000</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="B44" s="3"/>
       <c r="C44" s="10"/>
       <c r="D44" s="3"/>
@@ -3109,14 +3116,14 @@
         <v>1165500000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="B46" s="3"/>
       <c r="C46" s="10"/>
       <c r="D46" s="3"/>
@@ -3129,7 +3136,7 @@
       </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="B47" s="3"/>
       <c r="C47" s="10"/>
       <c r="D47" s="3"/>
@@ -3142,7 +3149,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="B48" s="3"/>
       <c r="C48" s="10"/>
       <c r="D48" s="3"/>
@@ -3155,14 +3162,14 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
       <c r="B49" s="3"/>
       <c r="C49" s="10"/>
       <c r="D49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="8"/>
       <c r="B50" s="1"/>
       <c r="C50" s="9"/>
@@ -3182,7 +3189,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3"/>
@@ -3202,7 +3209,7 @@
         <v>1627500000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="10"/>
       <c r="D52" s="3"/>
@@ -3222,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="10"/>
       <c r="D53" s="3"/>
@@ -3242,7 +3249,7 @@
         <v>165000000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
       <c r="D54" s="3"/>
@@ -3262,7 +3269,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="10"/>
       <c r="D55" s="3"/>
@@ -3282,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="10"/>
       <c r="D56" s="3"/>
@@ -3302,7 +3309,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
       <c r="D57" s="3"/>
@@ -3322,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="10"/>
       <c r="D58" s="3"/>
@@ -3342,7 +3349,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="10"/>
       <c r="D59" s="3"/>
@@ -3362,357 +3369,357 @@
         <v>-1000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="10"/>
       <c r="D60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
       <c r="D62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
       <c r="D63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
       <c r="B65" s="3"/>
       <c r="C65" s="10"/>
       <c r="D65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
       <c r="B66" s="3"/>
       <c r="C66" s="10"/>
       <c r="D66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
       <c r="B67" s="3"/>
       <c r="C67" s="10"/>
       <c r="D67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
       <c r="B68" s="3"/>
       <c r="C68" s="10"/>
       <c r="D68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
       <c r="B69" s="3"/>
       <c r="C69" s="10"/>
       <c r="D69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
       <c r="B70" s="3"/>
       <c r="C70" s="10"/>
       <c r="D70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
       <c r="B71" s="3"/>
       <c r="C71" s="10"/>
       <c r="D71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
       <c r="B72" s="3"/>
       <c r="C72" s="10"/>
       <c r="D72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
       <c r="B73" s="3"/>
       <c r="C73" s="10"/>
       <c r="D73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15.75" customHeight="1">
       <c r="B74" s="3"/>
       <c r="C74" s="10"/>
       <c r="D74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15.75" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="10"/>
       <c r="D75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15.75" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="10"/>
       <c r="D76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15.75" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="10"/>
       <c r="D77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15.75" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="10"/>
       <c r="D78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15.75" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="10"/>
       <c r="D79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15.75" customHeight="1">
       <c r="B80" s="3"/>
       <c r="C80" s="10"/>
       <c r="D80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="15.75" customHeight="1">
       <c r="B81" s="3"/>
       <c r="C81" s="10"/>
       <c r="D81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="15.75" customHeight="1">
       <c r="B82" s="3"/>
       <c r="C82" s="10"/>
       <c r="D82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15.75" customHeight="1">
       <c r="B83" s="3"/>
       <c r="C83" s="10"/>
       <c r="D83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15.75" customHeight="1">
       <c r="B84" s="3"/>
       <c r="C84" s="10"/>
       <c r="D84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15.75" customHeight="1">
       <c r="B85" s="3"/>
       <c r="C85" s="10"/>
       <c r="D85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="15.75" customHeight="1">
       <c r="B86" s="3"/>
       <c r="C86" s="10"/>
       <c r="D86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="15.75" customHeight="1">
       <c r="B87" s="3"/>
       <c r="C87" s="10"/>
       <c r="D87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="15.75" customHeight="1">
       <c r="B88" s="3"/>
       <c r="C88" s="10"/>
       <c r="D88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="15.75" customHeight="1">
       <c r="B89" s="3"/>
       <c r="C89" s="10"/>
       <c r="D89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="15.75" customHeight="1">
       <c r="B90" s="3"/>
       <c r="C90" s="10"/>
       <c r="D90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="15.75" customHeight="1">
       <c r="B91" s="3"/>
       <c r="C91" s="10"/>
       <c r="D91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="15.75" customHeight="1">
       <c r="B92" s="3"/>
       <c r="C92" s="10"/>
       <c r="D92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="15.75" customHeight="1">
       <c r="B93" s="3"/>
       <c r="C93" s="10"/>
       <c r="D93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="15.75" customHeight="1">
       <c r="B94" s="3"/>
       <c r="C94" s="10"/>
       <c r="D94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="15.75" customHeight="1">
       <c r="B95" s="3"/>
       <c r="C95" s="10"/>
       <c r="D95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="15.75" customHeight="1">
       <c r="B96" s="3"/>
       <c r="C96" s="10"/>
       <c r="D96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="15.75" customHeight="1">
       <c r="B97" s="3"/>
       <c r="C97" s="10"/>
       <c r="D97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="15.75" customHeight="1">
       <c r="B98" s="3"/>
       <c r="C98" s="10"/>
       <c r="D98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="15.75" customHeight="1">
       <c r="B99" s="3"/>
       <c r="C99" s="10"/>
       <c r="D99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="15.75" customHeight="1">
       <c r="B100" s="3"/>
       <c r="C100" s="10"/>
       <c r="D100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="15.75" customHeight="1">
       <c r="B101" s="3"/>
       <c r="C101" s="10"/>
       <c r="D101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="15.75" customHeight="1">
       <c r="B102" s="3"/>
       <c r="C102" s="10"/>
       <c r="D102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="15.75" customHeight="1">
       <c r="B103" s="3"/>
       <c r="C103" s="10"/>
       <c r="D103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="15.75" customHeight="1">
       <c r="B104" s="3"/>
       <c r="C104" s="10"/>
       <c r="D104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="15.75" customHeight="1">
       <c r="B105" s="3"/>
       <c r="C105" s="10"/>
       <c r="D105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="15.75" customHeight="1">
       <c r="B106" s="3"/>
       <c r="C106" s="10"/>
       <c r="D106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="15.75" customHeight="1">
       <c r="B107" s="3"/>
       <c r="C107" s="10"/>
       <c r="D107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="15.75" customHeight="1">
       <c r="B108" s="3"/>
       <c r="C108" s="10"/>
       <c r="D108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="15.75" customHeight="1">
       <c r="B109" s="3"/>
       <c r="C109" s="10"/>
       <c r="D109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="15.75" customHeight="1">
       <c r="B110" s="3"/>
       <c r="C110" s="10"/>
       <c r="D110" s="3"/>
@@ -3732,11 +3739,11 @@
   </sheetPr>
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A16" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -3749,7 +3756,7 @@
     <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3767,7 +3774,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3787,7 +3794,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3809,7 +3816,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -3844,7 +3851,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3865,7 +3872,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3890,7 +3897,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3919,7 +3926,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +3954,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -3966,7 +3973,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -3979,7 +3986,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -3997,7 +4004,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -4015,7 +4022,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -4034,7 +4041,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -4047,7 +4054,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -4068,7 +4075,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -4093,7 +4100,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -4122,7 +4129,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +4159,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -4165,7 +4172,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4183,7 +4190,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4201,7 +4208,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4220,7 +4227,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -4233,7 +4240,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -4254,7 +4261,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -4279,7 +4286,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -4308,7 +4315,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
@@ -4337,7 +4344,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
@@ -4356,7 +4363,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
@@ -4369,7 +4376,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
@@ -4394,7 +4401,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -4423,7 +4430,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
@@ -4453,7 +4460,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
@@ -4474,7 +4481,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
@@ -4498,7 +4505,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
@@ -4524,7 +4531,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -4542,7 +4549,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -4560,7 +4567,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -4579,7 +4586,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -4592,7 +4599,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -4610,7 +4617,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -4628,7 +4635,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -4647,7 +4654,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -4660,7 +4667,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -4677,7 +4684,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -4703,7 +4710,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -4732,7 +4739,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4768,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -4780,7 +4787,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="8"/>
       <c r="B50" s="1"/>
       <c r="C50" s="9"/>
@@ -4793,7 +4800,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
         <v>36</v>
       </c>
@@ -4814,7 +4821,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4839,7 +4846,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4867,7 +4874,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="11" t="s">
         <v>4</v>
       </c>
@@ -4896,7 +4903,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -4921,7 +4928,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -4945,7 +4952,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="11" t="s">
         <v>22</v>
       </c>
@@ -4971,7 +4978,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -4997,7 +5004,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -5026,7 +5033,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -5055,7 +5062,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3"/>
@@ -5066,7 +5073,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
       <c r="D62" s="3"/>
@@ -5083,7 +5090,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
       <c r="D63" s="3"/>
@@ -5100,7 +5107,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
       <c r="D64" s="3"/>
@@ -5117,7 +5124,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="B65" s="3"/>
       <c r="C65" s="10"/>
       <c r="D65" s="3"/>
@@ -5129,7 +5136,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -5150,7 +5157,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -5174,7 +5181,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -5198,7 +5205,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -5222,7 +5229,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -5246,7 +5253,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -5270,7 +5277,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -5294,7 +5301,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -5318,7 +5325,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -5342,7 +5349,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -5366,7 +5373,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -5391,7 +5398,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -5416,7 +5423,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -5441,7 +5448,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -5466,7 +5473,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -5491,7 +5498,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -5504,7 +5511,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -5517,7 +5524,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -5530,7 +5537,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -5543,7 +5550,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -5556,7 +5563,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -5569,7 +5576,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -5582,7 +5589,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -5595,7 +5602,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -5608,7 +5615,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -5621,7 +5628,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -5634,7 +5641,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -5647,7 +5654,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -5660,7 +5667,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -5673,7 +5680,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -5686,7 +5693,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -5699,7 +5706,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -5712,7 +5719,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -5725,7 +5732,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -5738,7 +5745,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -5751,7 +5758,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="4"/>
@@ -5764,7 +5771,7 @@
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.75" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -5777,7 +5784,7 @@
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15.75" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="4"/>
@@ -5790,7 +5797,7 @@
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15.75" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="4"/>
@@ -5803,7 +5810,7 @@
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="4"/>
@@ -5816,7 +5823,7 @@
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.75" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="4"/>
@@ -5829,7 +5836,7 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.75" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="4"/>
@@ -5842,7 +5849,7 @@
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15.75" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="4"/>
@@ -5855,7 +5862,7 @@
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.75" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -5868,7 +5875,7 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15.75" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -5881,7 +5888,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15.75" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -5894,7 +5901,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.75" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -5907,7 +5914,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15.75" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
@@ -5920,7 +5927,7 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15.75" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
@@ -5933,7 +5940,7 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.75" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
@@ -5946,7 +5953,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="15.75" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -5959,7 +5966,7 @@
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15.75" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
@@ -5972,7 +5979,7 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15.75" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
@@ -5985,7 +5992,7 @@
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="15.75" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
@@ -5998,7 +6005,7 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="15.75" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -6011,7 +6018,7 @@
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15.75" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
@@ -6024,7 +6031,7 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15.75" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
@@ -6037,7 +6044,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15.75" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
@@ -6050,7 +6057,7 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="15.75" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
@@ -6063,7 +6070,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="15.75" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
@@ -6090,10 +6097,10 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:G18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -6106,7 +6113,7 @@
     <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6124,7 +6131,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6144,7 +6151,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6166,7 +6173,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6195,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -6201,7 +6208,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6222,7 +6229,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6247,7 +6254,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -6276,7 +6283,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -6304,7 +6311,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -6323,7 +6330,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -6336,7 +6343,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -6354,7 +6361,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -6372,7 +6379,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -6391,7 +6398,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -6404,7 +6411,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -6425,7 +6432,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -6450,7 +6457,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
@@ -6479,7 +6486,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -6509,7 +6516,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6522,7 +6529,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -6543,7 +6550,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -6568,7 +6575,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -6597,7 +6604,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -6626,7 +6633,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6645,7 +6652,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -6658,7 +6665,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -6683,7 +6690,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -6712,7 +6719,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>22</v>
       </c>
@@ -6742,7 +6749,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>23</v>
       </c>
@@ -6763,7 +6770,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
@@ -6787,7 +6794,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -6813,7 +6820,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -6831,7 +6838,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -6849,7 +6856,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -6868,7 +6875,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -6881,7 +6888,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -6899,7 +6906,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -6917,7 +6924,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -6936,7 +6943,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -6949,7 +6956,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -6970,7 +6977,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -6994,7 +7001,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
@@ -7018,7 +7025,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
@@ -7042,7 +7049,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
@@ -7066,7 +7073,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -7090,7 +7097,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
@@ -7114,7 +7121,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
@@ -7138,7 +7145,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
@@ -7151,7 +7158,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -7164,7 +7171,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
@@ -7177,7 +7184,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -7190,7 +7197,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
@@ -7203,7 +7210,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -7216,7 +7223,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
@@ -7229,7 +7236,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
@@ -7242,7 +7249,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -7255,7 +7262,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -7268,7 +7275,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -7281,7 +7288,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -7294,7 +7301,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -7307,7 +7314,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -7320,7 +7327,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -7333,7 +7340,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -7346,7 +7353,7 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -7359,7 +7366,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -7372,7 +7379,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -7385,7 +7392,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -7398,7 +7405,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -7411,7 +7418,7 @@
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -7424,7 +7431,7 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -7437,7 +7444,7 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -7450,7 +7457,7 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -7463,7 +7470,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -7476,7 +7483,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -7489,7 +7496,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -7502,7 +7509,7 @@
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -7515,7 +7522,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -7528,7 +7535,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -7541,7 +7548,7 @@
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -7554,7 +7561,7 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -7567,7 +7574,7 @@
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -7580,7 +7587,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -7593,7 +7600,7 @@
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -7606,7 +7613,7 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -7619,7 +7626,7 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -7632,7 +7639,7 @@
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -7645,7 +7652,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -7658,7 +7665,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -7671,7 +7678,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -7684,7 +7691,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -7697,7 +7704,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -7710,7 +7717,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -7723,7 +7730,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -7736,7 +7743,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -7749,7 +7756,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -7762,7 +7769,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15.75" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -7775,7 +7782,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -7788,7 +7795,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -7801,7 +7808,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -7831,7 +7838,7 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -7844,7 +7851,7 @@
     <col min="10" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
@@ -7864,7 +7871,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7887,7 +7894,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7910,7 +7917,7 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7933,14 +7940,14 @@
         <v>1500000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5" s="3"/>
       <c r="C5" s="10"/>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
       <c r="D6" s="3"/>
@@ -7952,7 +7959,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
       <c r="D7" s="3"/>
@@ -7964,7 +7971,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8" s="3"/>
       <c r="C8" s="10"/>
       <c r="D8" s="3"/>
@@ -7978,7 +7985,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
       <c r="D9" s="3"/>
@@ -7986,7 +7993,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
       <c r="D10" s="3"/>
@@ -7998,7 +8005,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3"/>
@@ -8010,7 +8017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="B12" s="3"/>
       <c r="C12" s="10"/>
       <c r="D12" s="3"/>
@@ -8024,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="B13" s="3"/>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -8032,14 +8039,14 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="B14" s="3"/>
       <c r="C14" s="10"/>
       <c r="D14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
@@ -8057,7 +8064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -8080,7 +8087,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -8103,7 +8110,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>4</v>
       </c>
@@ -8126,7 +8133,7 @@
         <v>1665000000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -8147,7 +8154,7 @@
         <v>1665000000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -8162,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
@@ -8184,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -8206,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -8229,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -8246,7 +8253,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
       <c r="D25" s="3"/>
@@ -8257,7 +8264,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="10"/>
       <c r="D26" s="3"/>
@@ -8270,7 +8277,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
       <c r="D27" s="3"/>
@@ -8283,7 +8290,7 @@
         <v>1665000000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
       <c r="D28" s="3"/>
@@ -8296,14 +8303,14 @@
         <v>1665000000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="B29" s="3"/>
       <c r="C29" s="10"/>
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
       <c r="D30" s="3"/>
@@ -8316,7 +8323,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="B31" s="3"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3"/>
@@ -8329,7 +8336,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
       <c r="D32" s="3"/>
@@ -8342,14 +8349,14 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="1"/>
       <c r="C34" s="9"/>
@@ -8369,7 +8376,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="B35" s="3"/>
       <c r="C35" s="10"/>
       <c r="D35" s="3"/>
@@ -8389,7 +8396,7 @@
         <v>-1627500000</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="B36" s="3"/>
       <c r="C36" s="10"/>
       <c r="D36" s="3"/>
@@ -8409,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="B37" s="3"/>
       <c r="C37" s="10"/>
       <c r="D37" s="3"/>
@@ -8429,7 +8436,7 @@
         <v>-165000000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="B38" s="3"/>
       <c r="C38" s="10"/>
       <c r="D38" s="3"/>
@@ -8449,7 +8456,7 @@
         <v>-37500000</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
       <c r="B39" s="3"/>
       <c r="C39" s="10"/>
       <c r="D39" s="3"/>
@@ -8469,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="B40" s="3"/>
       <c r="C40" s="10"/>
       <c r="D40" s="3"/>
@@ -8489,7 +8496,7 @@
         <v>-1500000000</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="B41" s="3"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3"/>
@@ -8509,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="B42" s="3"/>
       <c r="C42" s="10"/>
       <c r="D42" s="3"/>
@@ -8529,7 +8536,7 @@
         <v>-1000000000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="B43" s="3"/>
       <c r="C43" s="10"/>
       <c r="D43" s="3"/>
@@ -8549,357 +8556,357 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="B44" s="3"/>
       <c r="C44" s="10"/>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="B46" s="3"/>
       <c r="C46" s="10"/>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="B47" s="3"/>
       <c r="C47" s="10"/>
       <c r="D47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="B48" s="3"/>
       <c r="C48" s="10"/>
       <c r="D48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
       <c r="B49" s="3"/>
       <c r="C49" s="10"/>
       <c r="D49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="3"/>
       <c r="C50" s="10"/>
       <c r="D50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="10"/>
       <c r="D52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="10"/>
       <c r="D53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
       <c r="D54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="10"/>
       <c r="D55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="10"/>
       <c r="D56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
       <c r="D57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="10"/>
       <c r="D58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="10"/>
       <c r="D59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="10"/>
       <c r="D60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
       <c r="D62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
       <c r="D63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
       <c r="B65" s="3"/>
       <c r="C65" s="10"/>
       <c r="D65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
       <c r="B66" s="3"/>
       <c r="C66" s="10"/>
       <c r="D66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
       <c r="B67" s="3"/>
       <c r="C67" s="10"/>
       <c r="D67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
       <c r="B68" s="3"/>
       <c r="C68" s="10"/>
       <c r="D68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
       <c r="B69" s="3"/>
       <c r="C69" s="10"/>
       <c r="D69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
       <c r="B70" s="3"/>
       <c r="C70" s="10"/>
       <c r="D70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
       <c r="B71" s="3"/>
       <c r="C71" s="10"/>
       <c r="D71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
       <c r="B72" s="3"/>
       <c r="C72" s="10"/>
       <c r="D72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
       <c r="B73" s="3"/>
       <c r="C73" s="10"/>
       <c r="D73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15.75" customHeight="1">
       <c r="B74" s="3"/>
       <c r="C74" s="10"/>
       <c r="D74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15.75" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="10"/>
       <c r="D75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15.75" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="10"/>
       <c r="D76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15.75" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="10"/>
       <c r="D77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15.75" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="10"/>
       <c r="D78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15.75" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="10"/>
       <c r="D79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15.75" customHeight="1">
       <c r="B80" s="3"/>
       <c r="C80" s="10"/>
       <c r="D80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="15.75" customHeight="1">
       <c r="B81" s="3"/>
       <c r="C81" s="10"/>
       <c r="D81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="15.75" customHeight="1">
       <c r="B82" s="3"/>
       <c r="C82" s="10"/>
       <c r="D82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="15.75" customHeight="1">
       <c r="B83" s="3"/>
       <c r="C83" s="10"/>
       <c r="D83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="15.75" customHeight="1">
       <c r="B84" s="3"/>
       <c r="C84" s="10"/>
       <c r="D84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="15.75" customHeight="1">
       <c r="B85" s="3"/>
       <c r="C85" s="10"/>
       <c r="D85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="15.75" customHeight="1">
       <c r="B86" s="3"/>
       <c r="C86" s="10"/>
       <c r="D86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="15.75" customHeight="1">
       <c r="B87" s="3"/>
       <c r="C87" s="10"/>
       <c r="D87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="15.75" customHeight="1">
       <c r="B88" s="3"/>
       <c r="C88" s="10"/>
       <c r="D88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="15.75" customHeight="1">
       <c r="B89" s="3"/>
       <c r="C89" s="10"/>
       <c r="D89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="15.75" customHeight="1">
       <c r="B90" s="3"/>
       <c r="C90" s="10"/>
       <c r="D90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="15.75" customHeight="1">
       <c r="B91" s="3"/>
       <c r="C91" s="10"/>
       <c r="D91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="15.75" customHeight="1">
       <c r="B92" s="3"/>
       <c r="C92" s="10"/>
       <c r="D92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="15.75" customHeight="1">
       <c r="B93" s="3"/>
       <c r="C93" s="10"/>
       <c r="D93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="15.75" customHeight="1">
       <c r="B94" s="3"/>
       <c r="C94" s="10"/>
       <c r="D94" s="3"/>
@@ -8920,10 +8927,10 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -8936,7 +8943,7 @@
     <col min="10" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -8947,7 +8954,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8968,7 +8975,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8991,7 +8998,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -9014,7 +9021,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -9035,7 +9042,7 @@
         <v>333000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9065,7 @@
         <v>333000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -9075,7 +9082,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -9097,7 +9104,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -9120,7 +9127,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -9143,14 +9150,14 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="3"/>
       <c r="C12" s="10"/>
       <c r="D12" s="3"/>
@@ -9165,7 +9172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="3"/>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -9185,7 +9192,7 @@
         <v>-325500000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="B14" s="3"/>
       <c r="C14" s="10"/>
       <c r="D14" s="3"/>
@@ -9205,7 +9212,7 @@
         <v>-7500000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="B15" s="3"/>
       <c r="C15" s="10"/>
       <c r="D15" s="3"/>
@@ -9225,7 +9232,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="3"/>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
@@ -9245,28 +9252,28 @@
         <v>-33000000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="B17" s="3"/>
       <c r="C17" s="10"/>
       <c r="D17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="B19" s="3"/>
       <c r="C19" s="10"/>
       <c r="D19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
@@ -9278,396 +9285,396 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="B21" s="3"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="B22" s="3"/>
       <c r="C22" s="10"/>
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="B23" s="3"/>
       <c r="C23" s="10"/>
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="B24" s="3"/>
       <c r="C24" s="10"/>
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="10"/>
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="B29" s="3"/>
       <c r="C29" s="10"/>
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="B31" s="3"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="10"/>
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
       <c r="B35" s="3"/>
       <c r="C35" s="10"/>
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
       <c r="B36" s="3"/>
       <c r="C36" s="10"/>
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
       <c r="B37" s="3"/>
       <c r="C37" s="10"/>
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1">
       <c r="B38" s="3"/>
       <c r="C38" s="10"/>
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="15.75" customHeight="1">
       <c r="B39" s="3"/>
       <c r="C39" s="10"/>
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1">
       <c r="B40" s="3"/>
       <c r="C40" s="10"/>
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1">
       <c r="B41" s="3"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="15.75" customHeight="1">
       <c r="B42" s="3"/>
       <c r="C42" s="10"/>
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="15.75" customHeight="1">
       <c r="B43" s="3"/>
       <c r="C43" s="10"/>
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="15.75" customHeight="1">
       <c r="B44" s="3"/>
       <c r="C44" s="10"/>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="15.75" customHeight="1">
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="15.75" customHeight="1">
       <c r="B46" s="3"/>
       <c r="C46" s="10"/>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="15.75" customHeight="1">
       <c r="B47" s="3"/>
       <c r="C47" s="10"/>
       <c r="D47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="15.75" customHeight="1">
       <c r="B48" s="3"/>
       <c r="C48" s="10"/>
       <c r="D48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
       <c r="B49" s="3"/>
       <c r="C49" s="10"/>
       <c r="D49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="3"/>
       <c r="C50" s="10"/>
       <c r="D50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="10"/>
       <c r="D52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="10"/>
       <c r="D53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
       <c r="D54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="10"/>
       <c r="D55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="10"/>
       <c r="D56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
       <c r="D57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="10"/>
       <c r="D58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="10"/>
       <c r="D59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="10"/>
       <c r="D60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
       <c r="D62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
       <c r="D63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
       <c r="B65" s="3"/>
       <c r="C65" s="10"/>
       <c r="D65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
       <c r="B66" s="3"/>
       <c r="C66" s="10"/>
       <c r="D66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
       <c r="B67" s="3"/>
       <c r="C67" s="10"/>
       <c r="D67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
       <c r="B68" s="3"/>
       <c r="C68" s="10"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
       <c r="B69" s="3"/>
       <c r="C69" s="10"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
       <c r="B70" s="3"/>
       <c r="C70" s="10"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
       <c r="B71" s="3"/>
       <c r="C71" s="10"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
       <c r="B72" s="3"/>
       <c r="C72" s="10"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
       <c r="B73" s="3"/>
       <c r="C73" s="10"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15.75" customHeight="1">
       <c r="B74" s="3"/>
       <c r="C74" s="10"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15.75" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="10"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15.75" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="10"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15.75" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="10"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15.75" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="10"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15.75" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="10"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15.75" customHeight="1">
       <c r="B80" s="3"/>
       <c r="C80" s="10"/>
       <c r="D80" s="3"/>
@@ -9685,11 +9692,11 @@
   </sheetPr>
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView zoomScale="82" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -9702,7 +9709,7 @@
     <col min="10" max="12" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
@@ -9713,7 +9720,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9734,7 +9741,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9757,7 +9764,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -9780,7 +9787,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -9801,7 +9808,7 @@
         <v>400000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -9824,7 +9831,7 @@
         <v>444000000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>22</v>
       </c>
@@ -9841,7 +9848,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -9863,7 +9870,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -9886,7 +9893,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -9909,14 +9916,14 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="B12" s="3"/>
       <c r="C12" s="10"/>
       <c r="D12" s="3"/>
@@ -9931,7 +9938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="B13" s="3"/>
       <c r="C13" s="10"/>
       <c r="D13" s="3"/>
@@ -9951,7 +9958,7 @@
         <v>434000000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="B14" s="3"/>
       <c r="C14" s="10"/>
       <c r="D14" s="3"/>
@@ -9971,7 +9978,7 @@
         <v>-10000000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="B15" s="3"/>
       <c r="C15" s="10"/>
       <c r="D15" s="3"/>
@@ -9991,7 +9998,7 @@
         <v>400000000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="3"/>
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
@@ -10011,28 +10018,28 @@
         <v>-44000000</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="B17" s="3"/>
       <c r="C17" s="10"/>
       <c r="D17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="B19" s="3"/>
       <c r="C19" s="10"/>
       <c r="D19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
@@ -10044,399 +10051,1903 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="B21" s="3"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="B22" s="3"/>
       <c r="C22" s="10"/>
       <c r="D22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="B23" s="3"/>
       <c r="C23" s="10"/>
       <c r="D23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="B24" s="3"/>
       <c r="C24" s="10"/>
       <c r="D24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="B25" s="3"/>
       <c r="C25" s="10"/>
       <c r="D25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="B26" s="3"/>
       <c r="C26" s="10"/>
       <c r="D26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="10"/>
       <c r="D27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="B28" s="3"/>
       <c r="C28" s="10"/>
       <c r="D28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="B29" s="3"/>
       <c r="C29" s="10"/>
       <c r="D29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
       <c r="D30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="B31" s="3"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="B32" s="3"/>
       <c r="C32" s="10"/>
       <c r="D32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="15.75" customHeight="1">
       <c r="B33" s="3"/>
       <c r="C33" s="10"/>
       <c r="D33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="15.75" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="10"/>
       <c r="D34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1">
       <c r="B35" s="3"/>
       <c r="C35" s="10"/>
       <c r="D35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1">
       <c r="B36" s="3"/>
       <c r="C36" s="10"/>
       <c r="D36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1">
       <c r="B37" s="3"/>
       <c r="C37" s="10"/>
       <c r="D37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1">
       <c r="B38" s="3"/>
       <c r="C38" s="10"/>
       <c r="D38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="15.75" customHeight="1">
       <c r="B39" s="3"/>
       <c r="C39" s="10"/>
       <c r="D39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1">
       <c r="B40" s="3"/>
       <c r="C40" s="10"/>
       <c r="D40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1">
       <c r="B41" s="3"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="15.75" customHeight="1">
       <c r="B42" s="3"/>
       <c r="C42" s="10"/>
       <c r="D42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="15.75" customHeight="1">
       <c r="B43" s="3"/>
       <c r="C43" s="10"/>
       <c r="D43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="15.75" customHeight="1">
       <c r="B44" s="3"/>
       <c r="C44" s="10"/>
       <c r="D44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="15.75" customHeight="1">
       <c r="B45" s="3"/>
       <c r="C45" s="10"/>
       <c r="D45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="15.75" customHeight="1">
       <c r="B46" s="3"/>
       <c r="C46" s="10"/>
       <c r="D46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="15.75" customHeight="1">
       <c r="B47" s="3"/>
       <c r="C47" s="10"/>
       <c r="D47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="15.75" customHeight="1">
       <c r="B48" s="3"/>
       <c r="C48" s="10"/>
       <c r="D48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15.75" customHeight="1">
       <c r="B49" s="3"/>
       <c r="C49" s="10"/>
       <c r="D49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15.75" customHeight="1">
       <c r="B50" s="3"/>
       <c r="C50" s="10"/>
       <c r="D50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="15.75" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="15.75" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="10"/>
       <c r="D52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="15.75" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="10"/>
       <c r="D53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="15.75" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="10"/>
       <c r="D54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="15.75" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="10"/>
       <c r="D55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="15.75" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="10"/>
       <c r="D56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="15.75" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
       <c r="D57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="15.75" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="10"/>
       <c r="D58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="15.75" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="10"/>
       <c r="D59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="15.75" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="10"/>
       <c r="D60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="15.75" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="15.75" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="10"/>
       <c r="D62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15.75" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="10"/>
       <c r="D63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15.75" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="10"/>
       <c r="D64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="15.75" customHeight="1">
       <c r="B65" s="3"/>
       <c r="C65" s="10"/>
       <c r="D65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15.75" customHeight="1">
       <c r="B66" s="3"/>
       <c r="C66" s="10"/>
       <c r="D66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.75" customHeight="1">
       <c r="B67" s="3"/>
       <c r="C67" s="10"/>
       <c r="D67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="15.75" customHeight="1">
       <c r="B68" s="3"/>
       <c r="C68" s="10"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="15.75" customHeight="1">
       <c r="B69" s="3"/>
       <c r="C69" s="10"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15.75" customHeight="1">
       <c r="B70" s="3"/>
       <c r="C70" s="10"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="15.75" customHeight="1">
       <c r="B71" s="3"/>
       <c r="C71" s="10"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="15.75" customHeight="1">
       <c r="B72" s="3"/>
       <c r="C72" s="10"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="15.75" customHeight="1">
       <c r="B73" s="3"/>
       <c r="C73" s="10"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="15.75" customHeight="1">
       <c r="B74" s="3"/>
       <c r="C74" s="10"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="15.75" customHeight="1">
       <c r="B75" s="3"/>
       <c r="C75" s="10"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="15.75" customHeight="1">
       <c r="B76" s="3"/>
       <c r="C76" s="10"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="15.75" customHeight="1">
       <c r="B77" s="3"/>
       <c r="C77" s="10"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="15.75" customHeight="1">
       <c r="B78" s="3"/>
       <c r="C78" s="10"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="15.75" customHeight="1">
       <c r="B79" s="3"/>
       <c r="C79" s="10"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="15.75" customHeight="1">
       <c r="B80" s="3"/>
       <c r="C80" s="10"/>
       <c r="D80" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758069E4-915E-4241-A140-036A86EBBB08}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:K95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" hidden="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1">
+        <f>D2+D3-D4</f>
+        <v>217000000</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" hidden="1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3">
+        <f>B2</f>
+        <v>200000000</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" hidden="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <f>D2*B3/100</f>
+        <v>22000000</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" hidden="1">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <f>D2*B4/100</f>
+        <v>5000000</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" hidden="1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" hidden="1">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G8" si="0">D7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" hidden="1">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <f>$B$3</f>
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" ref="C8:C9" si="1">C3</f>
+        <v>%</v>
+      </c>
+      <c r="D8" s="3">
+        <f>D7*B8/100</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>%</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D7*B9/100</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
+        <f>G7+G8</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" hidden="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <f t="shared" ref="G10:H10" si="2">SUM(G7:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" hidden="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" hidden="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" hidden="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" hidden="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:H14" si="3">SUM(G12:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" hidden="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3">
+        <f>B17</f>
+        <v>200000000</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="3">
+        <f>D17</f>
+        <v>200000000</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <f>$B$3</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>C3</f>
+        <v>%</v>
+      </c>
+      <c r="D18" s="3">
+        <f>D17*B18/100</f>
+        <v>22000000</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3">
+        <f>D26</f>
+        <v>22000000</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5">
+        <f>$B$4</f>
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>C4</f>
+        <v>%</v>
+      </c>
+      <c r="D19" s="5">
+        <f>D17*B19/100</f>
+        <v>5000000</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <f>D17+D26</f>
+        <v>222000000</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <f t="shared" ref="G20:H20" si="4">SUM(G17:G19)</f>
+        <v>222000000</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
+        <v>222000000</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3">
+        <f>B22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <f>D27</f>
+        <v>5000000</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <f>$B$3</f>
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>C3</f>
+        <v>%</v>
+      </c>
+      <c r="D23" s="3">
+        <f>D22*B23/100</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <f>D27</f>
+        <v>5000000</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <f>$B$4</f>
+        <v>2.5</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>C4</f>
+        <v>%</v>
+      </c>
+      <c r="D24" s="5">
+        <f>D22*B24/100</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <f t="shared" ref="G24:H24" si="5">SUM(G22:G23)</f>
+        <v>5000000</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
+        <v>5000000</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B17-B22</f>
+        <v>200000000</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3">
+        <f>B25</f>
+        <v>200000000</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <f>$B$3</f>
+        <v>11</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>C3</f>
+        <v>%</v>
+      </c>
+      <c r="D26" s="3">
+        <f>D25*B26/100</f>
+        <v>22000000</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <f>$B$4</f>
+        <v>2.5</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>C4</f>
+        <v>%</v>
+      </c>
+      <c r="D27" s="3">
+        <f>D25*B27/100</f>
+        <v>5000000</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="3">
+        <f>G17</f>
+        <v>200000000</v>
+      </c>
+      <c r="H27" s="3">
+        <f>H17</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" ref="I27:I29" si="6">G27-H27</f>
+        <v>200000000</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="3">
+        <f>G8+G18</f>
+        <v>22000000</v>
+      </c>
+      <c r="H28" s="3">
+        <f>H8+H18</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="6"/>
+        <v>22000000</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <f>G19+G22</f>
+        <v>5000000</v>
+      </c>
+      <c r="H29" s="3">
+        <f>H19+H22</f>
+        <v>222000000</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="6"/>
+        <v>-217000000</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="3">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <f>H13+H23</f>
+        <v>5000000</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" ref="I30" si="7">H30-G30</f>
+        <v>5000000</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="K95" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
